--- a/RQ3_results/RQ3-2_eosio_compare_results/detail_results.xlsx
+++ b/RQ3_results/RQ3-2_eosio_compare_results/detail_results.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+  <si>
+    <t>漏洞</t>
+  </si>
   <si>
     <t>TP</t>
   </si>
@@ -48,7 +51,7 @@
     <t>FET</t>
   </si>
   <si>
-    <t>7.6s</t>
+    <t>17s</t>
   </si>
   <si>
     <t>FTN</t>
@@ -77,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -101,6 +104,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -112,21 +123,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,10 +159,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,16 +204,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,60 +237,30 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,187 +275,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +466,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,22 +493,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,36 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -562,153 +546,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -722,13 +726,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1085,7 +1089,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I13"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1096,38 +1100,40 @@
   <sheetData>
     <row r="1" ht="15" spans="1:10">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1150,14 +1156,14 @@
       <c r="I2" s="1">
         <v>90</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:10">
       <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
@@ -1178,12 +1184,12 @@
         <v>0</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" ht="15" spans="1:10">
       <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -1204,14 +1210,14 @@
         <v>0</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:10">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1236,8 +1242,8 @@
     </row>
     <row r="6" ht="15" spans="1:10">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1262,8 +1268,8 @@
     </row>
     <row r="7" ht="15" spans="1:10">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1287,11 +1293,11 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1313,13 +1319,13 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
@@ -1343,9 +1349,9 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" ht="15" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1369,11 +1375,11 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" ht="15" spans="1:10">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1398,8 +1404,8 @@
     </row>
     <row r="12" ht="15" spans="1:10">
       <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1424,20 +1430,20 @@
     </row>
     <row r="13" ht="15" spans="1:10">
       <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
